--- a/crawling/crawling.xlsx
+++ b/crawling/crawling.xlsx
@@ -361,85 +361,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2020/07/10 18:01:10</t>
+          <t>2020/07/11 13:29:56</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5G만큼 빠른 와이파이, 올해 안에 상용화 된다</t>
+          <t>[토요와이드] 박원순 서울시장 추모 물결…서울특별시장(葬) 반대 청원도</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=105&amp;oid=015&amp;aid=0004378154</t>
+          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=100&amp;oid=422&amp;aid=0000437439</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020/07/10 18:01:10</t>
+          <t>2020/07/11 13:29:56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"제2 싸이월드 막으려면 '잊히지 않을 권리' 보장해야"</t>
+          <t>'고인 추모와 피해자 보호 사이' 박원순 죽음두고 이틀째 계속된 논쟁</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=105&amp;oid=031&amp;aid=0000547068</t>
+          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=100&amp;oid=469&amp;aid=0000514716</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020/07/10 18:01:10</t>
+          <t>2020/07/11 13:29:56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"단말기 판매보조금, 공시지원금의 15% 이상으로 올려야"</t>
+          <t>갑작스런 죽음에 박원순 아들 오늘 귀국…최장집·염수정 등 빈소 찾아</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=105&amp;oid=011&amp;aid=0003766687</t>
+          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=100&amp;oid=366&amp;aid=0000553279</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020/07/10 18:01:10</t>
+          <t>2020/07/11 13:29:56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>과기정통부, 과학창의재단 고강도 징계...징계 8명, 고발 5명</t>
+          <t>"친일파는 안돼" 현충원 안장 공방이란</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=105&amp;oid=030&amp;aid=0002892787</t>
+          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=100&amp;oid=469&amp;aid=0000514707</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020/07/10 18:01:10</t>
+          <t>2020/07/11 13:29:56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>“화웨이 제재 반사이익 삼성보단 샤오미가 누렸다”</t>
+          <t>부산이어 서울도 보궐선거…"논의 이르다" vs "대선 버금 간다"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=105&amp;oid=018&amp;aid=0004686517</t>
+          <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=shm&amp;sid1=100&amp;oid=057&amp;aid=0001476406</t>
         </is>
       </c>
     </row>
